--- a/Data/Input/Insurance_Claims_Input_21-05-2025.xlsx
+++ b/Data/Input/Insurance_Claims_Input_21-05-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b498711e3aabb8c/Documents/UiPath/Insurance_Claim_Dispatcher/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{C8CB35C6-9866-4EDC-ADFC-9D1556290443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAF860F-E6E4-4433-B90B-65C7B4290589}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{C8CB35C6-9866-4EDC-ADFC-9D1556290443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59DDC7D9-8236-4E4B-A80D-309E647F8C4A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Claim ID</t>
   </si>
@@ -91,13 +91,19 @@
     <t>CLM1007</t>
   </si>
   <si>
-    <t>Correct Data 2</t>
-  </si>
-  <si>
     <t>CLM1008</t>
   </si>
   <si>
-    <t>Correct Data 3</t>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Rejected Claim</t>
+  </si>
+  <si>
+    <t>Manual Review</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -180,6 +186,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,7 +482,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>45854</v>
@@ -636,13 +646,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -657,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>124894</v>

--- a/Data/Input/Insurance_Claims_Input_21-05-2025.xlsx
+++ b/Data/Input/Insurance_Claims_Input_21-05-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b498711e3aabb8c/Documents/UiPath/Insurance_Claim_Dispatcher/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{C8CB35C6-9866-4EDC-ADFC-9D1556290443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59DDC7D9-8236-4E4B-A80D-309E647F8C4A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A1579046-5BFE-455A-960B-8FE773EE8E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577A8411-8764-4149-99F0-8BF42D7E0726}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="234">
   <si>
     <t>Claim ID</t>
   </si>
@@ -67,43 +67,661 @@
     <t>Medicine Charges</t>
   </si>
   <si>
+    <t>CLM1001</t>
+  </si>
+  <si>
+    <t>CLM1002</t>
+  </si>
+  <si>
+    <t>CLM1003</t>
+  </si>
+  <si>
+    <t>CLM1004</t>
+  </si>
+  <si>
+    <t>CLM1005</t>
+  </si>
+  <si>
+    <t>CLM1006</t>
+  </si>
+  <si>
+    <t>CLM1007</t>
+  </si>
+  <si>
+    <t>CLM1008</t>
+  </si>
+  <si>
+    <t>CLM1009</t>
+  </si>
+  <si>
+    <t>CLM1010</t>
+  </si>
+  <si>
+    <t>CLM1011</t>
+  </si>
+  <si>
+    <t>CLM1012</t>
+  </si>
+  <si>
+    <t>CLM1013</t>
+  </si>
+  <si>
+    <t>CLM1014</t>
+  </si>
+  <si>
+    <t>CLM1015</t>
+  </si>
+  <si>
+    <t>CLM1016</t>
+  </si>
+  <si>
+    <t>CLM1017</t>
+  </si>
+  <si>
+    <t>CLM1018</t>
+  </si>
+  <si>
+    <t>CLM1019</t>
+  </si>
+  <si>
+    <t>CLM1020</t>
+  </si>
+  <si>
+    <t>CLM1021</t>
+  </si>
+  <si>
+    <t>CLM1022</t>
+  </si>
+  <si>
+    <t>CLM1023</t>
+  </si>
+  <si>
+    <t>CLM1024</t>
+  </si>
+  <si>
+    <t>CLM1025</t>
+  </si>
+  <si>
+    <t>CLM1026</t>
+  </si>
+  <si>
+    <t>CLM1027</t>
+  </si>
+  <si>
+    <t>CLM1028</t>
+  </si>
+  <si>
+    <t>CLM1029</t>
+  </si>
+  <si>
+    <t>CLM1030</t>
+  </si>
+  <si>
+    <t>CLM1031</t>
+  </si>
+  <si>
+    <t>CLM1032</t>
+  </si>
+  <si>
+    <t>CLM1033</t>
+  </si>
+  <si>
+    <t>CLM1034</t>
+  </si>
+  <si>
+    <t>CLM1035</t>
+  </si>
+  <si>
+    <t>CLM1036</t>
+  </si>
+  <si>
+    <t>CLM1037</t>
+  </si>
+  <si>
+    <t>CLM1038</t>
+  </si>
+  <si>
+    <t>CLM1039</t>
+  </si>
+  <si>
+    <t>CLM1040</t>
+  </si>
+  <si>
+    <t>CLM1041</t>
+  </si>
+  <si>
+    <t>CLM1042</t>
+  </si>
+  <si>
+    <t>CLM1043</t>
+  </si>
+  <si>
+    <t>CLM1044</t>
+  </si>
+  <si>
+    <t>CLM1045</t>
+  </si>
+  <si>
+    <t>CLM1046</t>
+  </si>
+  <si>
+    <t>CLM1047</t>
+  </si>
+  <si>
+    <t>CLM1048</t>
+  </si>
+  <si>
+    <t>CLM1049</t>
+  </si>
+  <si>
+    <t>CLM1050</t>
+  </si>
+  <si>
+    <t>CLM1051</t>
+  </si>
+  <si>
+    <t>CLM1052</t>
+  </si>
+  <si>
+    <t>CLM1053</t>
+  </si>
+  <si>
+    <t>CLM1054</t>
+  </si>
+  <si>
+    <t>CLM1055</t>
+  </si>
+  <si>
+    <t>CLM1056</t>
+  </si>
+  <si>
+    <t>CLM1057</t>
+  </si>
+  <si>
+    <t>CLM1058</t>
+  </si>
+  <si>
+    <t>CLM1059</t>
+  </si>
+  <si>
+    <t>CLM1060</t>
+  </si>
+  <si>
+    <t>CLM1061</t>
+  </si>
+  <si>
+    <t>CLM1062</t>
+  </si>
+  <si>
+    <t>CLM1063</t>
+  </si>
+  <si>
+    <t>CLM1064</t>
+  </si>
+  <si>
+    <t>CLM1065</t>
+  </si>
+  <si>
+    <t>CLM1066</t>
+  </si>
+  <si>
+    <t>CLM1067</t>
+  </si>
+  <si>
+    <t>CLM1068</t>
+  </si>
+  <si>
+    <t>CLM1069</t>
+  </si>
+  <si>
+    <t>CLM1070</t>
+  </si>
+  <si>
+    <t>CLM1071</t>
+  </si>
+  <si>
+    <t>CLM1072</t>
+  </si>
+  <si>
+    <t>CLM1073</t>
+  </si>
+  <si>
+    <t>CLM1074</t>
+  </si>
+  <si>
+    <t>CLM1075</t>
+  </si>
+  <si>
+    <t>CLM1076</t>
+  </si>
+  <si>
+    <t>CLM1077</t>
+  </si>
+  <si>
+    <t>CLM1078</t>
+  </si>
+  <si>
+    <t>CLM1079</t>
+  </si>
+  <si>
+    <t>CLM1080</t>
+  </si>
+  <si>
+    <t>CLM1081</t>
+  </si>
+  <si>
+    <t>CLM1082</t>
+  </si>
+  <si>
+    <t>CLM1083</t>
+  </si>
+  <si>
+    <t>CLM1084</t>
+  </si>
+  <si>
+    <t>CLM1085</t>
+  </si>
+  <si>
+    <t>CLM1086</t>
+  </si>
+  <si>
+    <t>CLM1087</t>
+  </si>
+  <si>
+    <t>CLM1088</t>
+  </si>
+  <si>
+    <t>CLM1089</t>
+  </si>
+  <si>
+    <t>CLM1090</t>
+  </si>
+  <si>
+    <t>CLM1091</t>
+  </si>
+  <si>
+    <t>CLM1092</t>
+  </si>
+  <si>
+    <t>CLM1093</t>
+  </si>
+  <si>
+    <t>CLM1094</t>
+  </si>
+  <si>
+    <t>CLM1095</t>
+  </si>
+  <si>
+    <t>CLM1096</t>
+  </si>
+  <si>
+    <t>CLM1097</t>
+  </si>
+  <si>
+    <t>CLM1098</t>
+  </si>
+  <si>
+    <t>CLM1099</t>
+  </si>
+  <si>
+    <t>CLM1100</t>
+  </si>
+  <si>
+    <t>POL1234567</t>
+  </si>
+  <si>
+    <t>POL7654321</t>
+  </si>
+  <si>
+    <t>POL2342305</t>
+  </si>
+  <si>
+    <t>POL2708141</t>
+  </si>
+  <si>
+    <t>POL8017809</t>
+  </si>
+  <si>
+    <t>POL8651570</t>
+  </si>
+  <si>
+    <t>POL8341433</t>
+  </si>
+  <si>
+    <t>POL4477052</t>
+  </si>
+  <si>
+    <t>POL2109339</t>
+  </si>
+  <si>
+    <t>POL6329015</t>
+  </si>
+  <si>
+    <t>POL4220885</t>
+  </si>
+  <si>
+    <t>POL5767423</t>
+  </si>
+  <si>
+    <t>POL3956078</t>
+  </si>
+  <si>
+    <t>POL9793644</t>
+  </si>
+  <si>
+    <t>POL7263932</t>
+  </si>
+  <si>
+    <t>POL3869521</t>
+  </si>
+  <si>
+    <t>POL9052269</t>
+  </si>
+  <si>
+    <t>POL2510661</t>
+  </si>
+  <si>
+    <t>POL2154458</t>
+  </si>
+  <si>
+    <t>POL1326012</t>
+  </si>
+  <si>
+    <t>POL4313626</t>
+  </si>
+  <si>
+    <t>POL7763458</t>
+  </si>
+  <si>
+    <t>POL4978675</t>
+  </si>
+  <si>
+    <t>POL4573028</t>
+  </si>
+  <si>
+    <t>POL5584967</t>
+  </si>
+  <si>
+    <t>POL2551657</t>
+  </si>
+  <si>
+    <t>POL2985980</t>
+  </si>
+  <si>
+    <t>POL6602762</t>
+  </si>
+  <si>
+    <t>POL7191207</t>
+  </si>
+  <si>
+    <t>POL7998205</t>
+  </si>
+  <si>
+    <t>POL2606331</t>
+  </si>
+  <si>
+    <t>POL9501929</t>
+  </si>
+  <si>
+    <t>POL4710188</t>
+  </si>
+  <si>
+    <t>POL4320585</t>
+  </si>
+  <si>
+    <t>POL2710977</t>
+  </si>
+  <si>
+    <t>POL8238584</t>
+  </si>
+  <si>
+    <t>POL8263531</t>
+  </si>
+  <si>
+    <t>POL4202543</t>
+  </si>
+  <si>
+    <t>POL1117333</t>
+  </si>
+  <si>
+    <t>POL9357934</t>
+  </si>
+  <si>
+    <t>POL6248904</t>
+  </si>
+  <si>
+    <t>POL8070310</t>
+  </si>
+  <si>
+    <t>POL7419197</t>
+  </si>
+  <si>
+    <t>POL7431422</t>
+  </si>
+  <si>
+    <t>POL6415610</t>
+  </si>
+  <si>
+    <t>POL2959380</t>
+  </si>
+  <si>
+    <t>POL6679783</t>
+  </si>
+  <si>
+    <t>POL9561310</t>
+  </si>
+  <si>
+    <t>POL5910129</t>
+  </si>
+  <si>
+    <t>POL3031864</t>
+  </si>
+  <si>
+    <t>POL7336545</t>
+  </si>
+  <si>
+    <t>POL4315914</t>
+  </si>
+  <si>
+    <t>POL8495275</t>
+  </si>
+  <si>
+    <t>POL6017573</t>
+  </si>
+  <si>
+    <t>POL8774113</t>
+  </si>
+  <si>
+    <t>POL7442914</t>
+  </si>
+  <si>
+    <t>POL6557807</t>
+  </si>
+  <si>
+    <t>POL6897035</t>
+  </si>
+  <si>
+    <t>POL4392598</t>
+  </si>
+  <si>
+    <t>POL4728102</t>
+  </si>
+  <si>
+    <t>POL3326089</t>
+  </si>
+  <si>
+    <t>POL4551833</t>
+  </si>
+  <si>
+    <t>POL8828924</t>
+  </si>
+  <si>
+    <t>POL5590746</t>
+  </si>
+  <si>
+    <t>POL8678249</t>
+  </si>
+  <si>
+    <t>POL9356661</t>
+  </si>
+  <si>
+    <t>POL3993676</t>
+  </si>
+  <si>
+    <t>POL7764398</t>
+  </si>
+  <si>
+    <t>POL6480341</t>
+  </si>
+  <si>
+    <t>POL1531859</t>
+  </si>
+  <si>
+    <t>POL9057502</t>
+  </si>
+  <si>
+    <t>POL5399190</t>
+  </si>
+  <si>
+    <t>POL7730686</t>
+  </si>
+  <si>
+    <t>POL6393965</t>
+  </si>
+  <si>
+    <t>POL6991495</t>
+  </si>
+  <si>
+    <t>POL8988921</t>
+  </si>
+  <si>
+    <t>POL4756525</t>
+  </si>
+  <si>
+    <t>POL4201677</t>
+  </si>
+  <si>
+    <t>POL5687554</t>
+  </si>
+  <si>
+    <t>POL5256066</t>
+  </si>
+  <si>
+    <t>POL4287245</t>
+  </si>
+  <si>
+    <t>POL3512181</t>
+  </si>
+  <si>
+    <t>POL7599043</t>
+  </si>
+  <si>
+    <t>POL4936338</t>
+  </si>
+  <si>
+    <t>POL2187883</t>
+  </si>
+  <si>
+    <t>POL8320958</t>
+  </si>
+  <si>
+    <t>POL7281272</t>
+  </si>
+  <si>
+    <t>POL4554757</t>
+  </si>
+  <si>
+    <t>POL8822521</t>
+  </si>
+  <si>
+    <t>POL7541597</t>
+  </si>
+  <si>
+    <t>POL4475357</t>
+  </si>
+  <si>
+    <t>POL2321209</t>
+  </si>
+  <si>
+    <t>POL4193497</t>
+  </si>
+  <si>
+    <t>POL2001572</t>
+  </si>
+  <si>
+    <t>POL4090946</t>
+  </si>
+  <si>
+    <t>POL7428445</t>
+  </si>
+  <si>
+    <t>POL9477762</t>
+  </si>
+  <si>
+    <t>POL5030601</t>
+  </si>
+  <si>
+    <t>POL3559365</t>
+  </si>
+  <si>
+    <t>POL9595296</t>
+  </si>
+  <si>
+    <t>Rajesh Sharma</t>
+  </si>
+  <si>
+    <t>Sneha Patel</t>
+  </si>
+  <si>
+    <t>Vikram Singh</t>
+  </si>
+  <si>
+    <t>Ravi Varma</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
+  </si>
+  <si>
+    <t>Meena Joshi</t>
+  </si>
+  <si>
+    <t>Priya Desai</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
     <t>CityCare Hospital</t>
   </si>
   <si>
+    <t>Shree Care Hospital</t>
+  </si>
+  <si>
+    <t>Green Cross</t>
+  </si>
+  <si>
+    <t>MediLife</t>
+  </si>
+  <si>
+    <t>Apollo Health</t>
+  </si>
+  <si>
+    <t>Surgery</t>
+  </si>
+  <si>
     <t>ICU</t>
   </si>
   <si>
-    <t>CLM1006</t>
-  </si>
-  <si>
-    <t>POL2342309</t>
-  </si>
-  <si>
-    <t>Correct Data</t>
-  </si>
-  <si>
-    <t>29-02-2025</t>
-  </si>
-  <si>
-    <t>CLM1007</t>
-  </si>
-  <si>
-    <t>CLM1008</t>
+    <t>Orthopedic</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Emergency</t>
   </si>
   <si>
     <t>Auto</t>
-  </si>
-  <si>
-    <t>Rejected Claim</t>
-  </si>
-  <si>
-    <t>Manual Review</t>
-  </si>
-  <si>
-    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -186,10 +804,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,122 +1166,122 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2">
-        <v>45854</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>46022</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45778</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="I2">
-        <v>124894</v>
+        <v>120000</v>
       </c>
       <c r="J2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2093</v>
+        <v>2500</v>
       </c>
       <c r="O2">
-        <v>5824</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2">
-        <v>45854</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>45641</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45667</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="I3">
-        <v>124894</v>
+        <v>90000</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>2093</v>
+        <v>1500</v>
       </c>
       <c r="O3">
-        <v>5824</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2">
         <v>45854</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
+      <c r="F4" s="2">
+        <v>45713</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I4">
         <v>124894</v>
@@ -689,6 +1303,4565 @@
       </c>
       <c r="O4">
         <v>5824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="2">
+        <v>46001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45708</v>
+      </c>
+      <c r="G5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5">
+        <v>100431</v>
+      </c>
+      <c r="J5">
+        <v>5000</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>12000</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2975</v>
+      </c>
+      <c r="O5">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45900</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45707</v>
+      </c>
+      <c r="G6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6">
+        <v>119942</v>
+      </c>
+      <c r="J6">
+        <v>5000</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>8000</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1019</v>
+      </c>
+      <c r="O6">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45958</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45716</v>
+      </c>
+      <c r="G7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7">
+        <v>85642</v>
+      </c>
+      <c r="J7">
+        <v>4000</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>10000</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2048</v>
+      </c>
+      <c r="O7">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="2">
+        <v>46010</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45715</v>
+      </c>
+      <c r="G8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8">
+        <v>127420</v>
+      </c>
+      <c r="J8">
+        <v>5000</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2371</v>
+      </c>
+      <c r="O8">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45864</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45667</v>
+      </c>
+      <c r="G9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9">
+        <v>74600</v>
+      </c>
+      <c r="J9">
+        <v>5000</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>8000</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2484</v>
+      </c>
+      <c r="O9">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45764</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45734</v>
+      </c>
+      <c r="G10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10">
+        <v>86938</v>
+      </c>
+      <c r="J10">
+        <v>4000</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>12000</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>1374</v>
+      </c>
+      <c r="O10">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45727</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45712</v>
+      </c>
+      <c r="G11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11">
+        <v>82155</v>
+      </c>
+      <c r="J11">
+        <v>5000</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>10000</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2127</v>
+      </c>
+      <c r="O11">
+        <v>6786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="2">
+        <v>46009</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45661</v>
+      </c>
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12">
+        <v>71495</v>
+      </c>
+      <c r="J12">
+        <v>5000</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>10000</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1959</v>
+      </c>
+      <c r="O12">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45682</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45680</v>
+      </c>
+      <c r="G13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13">
+        <v>123033</v>
+      </c>
+      <c r="J13">
+        <v>5000</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2584</v>
+      </c>
+      <c r="O13">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45946</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45796</v>
+      </c>
+      <c r="G14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14">
+        <v>75408</v>
+      </c>
+      <c r="J14">
+        <v>6000</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>12000</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1470</v>
+      </c>
+      <c r="O14">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45804</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45796</v>
+      </c>
+      <c r="G15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15">
+        <v>115319</v>
+      </c>
+      <c r="J15">
+        <v>6000</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2060</v>
+      </c>
+      <c r="O15">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45762</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45752</v>
+      </c>
+      <c r="G16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16">
+        <v>122737</v>
+      </c>
+      <c r="J16">
+        <v>5000</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>8000</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>2076</v>
+      </c>
+      <c r="O16">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45780</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45754</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17">
+        <v>65095</v>
+      </c>
+      <c r="J17">
+        <v>6000</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>10000</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2713</v>
+      </c>
+      <c r="O17">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45832</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45786</v>
+      </c>
+      <c r="G18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" t="s">
+        <v>232</v>
+      </c>
+      <c r="I18">
+        <v>104862</v>
+      </c>
+      <c r="J18">
+        <v>5000</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>8000</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2176</v>
+      </c>
+      <c r="O18">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45798</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45745</v>
+      </c>
+      <c r="G19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19">
+        <v>110410</v>
+      </c>
+      <c r="J19">
+        <v>5000</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>12000</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>1182</v>
+      </c>
+      <c r="O19">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="2">
+        <v>46010</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45750</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20">
+        <v>69718</v>
+      </c>
+      <c r="J20">
+        <v>5000</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>12000</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2452</v>
+      </c>
+      <c r="O20">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45907</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45788</v>
+      </c>
+      <c r="G21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" t="s">
+        <v>232</v>
+      </c>
+      <c r="I21">
+        <v>143741</v>
+      </c>
+      <c r="J21">
+        <v>6000</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>8000</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>1742</v>
+      </c>
+      <c r="O21">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45731</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45797</v>
+      </c>
+      <c r="G22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22">
+        <v>112126</v>
+      </c>
+      <c r="J22">
+        <v>4000</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>10000</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>1317</v>
+      </c>
+      <c r="O22">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45923</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45793</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23">
+        <v>103369</v>
+      </c>
+      <c r="J23">
+        <v>5000</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>10000</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>1213</v>
+      </c>
+      <c r="O23">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45956</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45683</v>
+      </c>
+      <c r="G24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24">
+        <v>128465</v>
+      </c>
+      <c r="J24">
+        <v>5000</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>10000</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>1934</v>
+      </c>
+      <c r="O24">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45669</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45784</v>
+      </c>
+      <c r="G25" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25">
+        <v>126921</v>
+      </c>
+      <c r="J25">
+        <v>4000</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>2867</v>
+      </c>
+      <c r="O25">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45819</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45796</v>
+      </c>
+      <c r="G26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" t="s">
+        <v>230</v>
+      </c>
+      <c r="I26">
+        <v>52746</v>
+      </c>
+      <c r="J26">
+        <v>5000</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1251</v>
+      </c>
+      <c r="O26">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45868</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45800</v>
+      </c>
+      <c r="G27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27">
+        <v>54474</v>
+      </c>
+      <c r="J27">
+        <v>4000</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>10000</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1987</v>
+      </c>
+      <c r="O27">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45922</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45679</v>
+      </c>
+      <c r="G28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28">
+        <v>147298</v>
+      </c>
+      <c r="J28">
+        <v>6000</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>10000</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>1744</v>
+      </c>
+      <c r="O28">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45885</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45709</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29">
+        <v>106288</v>
+      </c>
+      <c r="J29">
+        <v>6000</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>12000</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2321</v>
+      </c>
+      <c r="O29">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45763</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45779</v>
+      </c>
+      <c r="G30" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30">
+        <v>123390</v>
+      </c>
+      <c r="J30">
+        <v>4000</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>10000</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2215</v>
+      </c>
+      <c r="O30">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45844</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45673</v>
+      </c>
+      <c r="G31" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31">
+        <v>99593</v>
+      </c>
+      <c r="J31">
+        <v>6000</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2355</v>
+      </c>
+      <c r="O31">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45982</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45773</v>
+      </c>
+      <c r="G32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32">
+        <v>139171</v>
+      </c>
+      <c r="J32">
+        <v>4000</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>10000</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1732</v>
+      </c>
+      <c r="O32">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45698</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45715</v>
+      </c>
+      <c r="G33" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33">
+        <v>82567</v>
+      </c>
+      <c r="J33">
+        <v>4000</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>12000</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2448</v>
+      </c>
+      <c r="O33">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45861</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45791</v>
+      </c>
+      <c r="G34" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34">
+        <v>80723</v>
+      </c>
+      <c r="J34">
+        <v>4000</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>12000</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>1191</v>
+      </c>
+      <c r="O34">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45687</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45728</v>
+      </c>
+      <c r="G35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" t="s">
+        <v>228</v>
+      </c>
+      <c r="I35">
+        <v>73066</v>
+      </c>
+      <c r="J35">
+        <v>4000</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>8000</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1135</v>
+      </c>
+      <c r="O35">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45919</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45741</v>
+      </c>
+      <c r="G36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36">
+        <v>70141</v>
+      </c>
+      <c r="J36">
+        <v>4000</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>12000</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2807</v>
+      </c>
+      <c r="O36">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45887</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45803</v>
+      </c>
+      <c r="G37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H37" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37">
+        <v>141922</v>
+      </c>
+      <c r="J37">
+        <v>4000</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>10000</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>2435</v>
+      </c>
+      <c r="O37">
+        <v>6704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45727</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45661</v>
+      </c>
+      <c r="G38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38">
+        <v>140984</v>
+      </c>
+      <c r="J38">
+        <v>6000</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>12000</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2308</v>
+      </c>
+      <c r="O38">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45762</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45745</v>
+      </c>
+      <c r="G39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39">
+        <v>141543</v>
+      </c>
+      <c r="J39">
+        <v>6000</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>10000</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2079</v>
+      </c>
+      <c r="O39">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45963</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45764</v>
+      </c>
+      <c r="G40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40">
+        <v>105711</v>
+      </c>
+      <c r="J40">
+        <v>6000</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1111</v>
+      </c>
+      <c r="O40">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45965</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45698</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41">
+        <v>109572</v>
+      </c>
+      <c r="J41">
+        <v>5000</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>10000</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>1175</v>
+      </c>
+      <c r="O41">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45756</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45752</v>
+      </c>
+      <c r="G42" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" t="s">
+        <v>230</v>
+      </c>
+      <c r="I42">
+        <v>96457</v>
+      </c>
+      <c r="J42">
+        <v>5000</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>10000</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2150</v>
+      </c>
+      <c r="O42">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45683</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45711</v>
+      </c>
+      <c r="G43" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43">
+        <v>119815</v>
+      </c>
+      <c r="J43">
+        <v>5000</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>12000</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>1149</v>
+      </c>
+      <c r="O43">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45658</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45693</v>
+      </c>
+      <c r="G44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44">
+        <v>146124</v>
+      </c>
+      <c r="J44">
+        <v>6000</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>8000</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2365</v>
+      </c>
+      <c r="O44">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45778</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45745</v>
+      </c>
+      <c r="G45" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" t="s">
+        <v>231</v>
+      </c>
+      <c r="I45">
+        <v>137607</v>
+      </c>
+      <c r="J45">
+        <v>5000</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>10000</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>1473</v>
+      </c>
+      <c r="O45">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45709</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45683</v>
+      </c>
+      <c r="G46" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46">
+        <v>144021</v>
+      </c>
+      <c r="J46">
+        <v>4000</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>12000</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>2027</v>
+      </c>
+      <c r="O46">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45926</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45714</v>
+      </c>
+      <c r="G47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47">
+        <v>108080</v>
+      </c>
+      <c r="J47">
+        <v>5000</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>12000</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2238</v>
+      </c>
+      <c r="O47">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45788</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45713</v>
+      </c>
+      <c r="G48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I48">
+        <v>117560</v>
+      </c>
+      <c r="J48">
+        <v>6000</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>12000</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2704</v>
+      </c>
+      <c r="O48">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45707</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45797</v>
+      </c>
+      <c r="G49" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49">
+        <v>117607</v>
+      </c>
+      <c r="J49">
+        <v>5000</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>8000</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>1975</v>
+      </c>
+      <c r="O49">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45950</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+      <c r="H50" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50">
+        <v>123124</v>
+      </c>
+      <c r="J50">
+        <v>5000</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>10000</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>1859</v>
+      </c>
+      <c r="O50">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45861</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45782</v>
+      </c>
+      <c r="G51" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" t="s">
+        <v>231</v>
+      </c>
+      <c r="I51">
+        <v>124825</v>
+      </c>
+      <c r="J51">
+        <v>6000</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>12000</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>1245</v>
+      </c>
+      <c r="O51">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45778</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45686</v>
+      </c>
+      <c r="G52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" t="s">
+        <v>228</v>
+      </c>
+      <c r="I52">
+        <v>144474</v>
+      </c>
+      <c r="J52">
+        <v>4000</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>10000</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>2775</v>
+      </c>
+      <c r="O52">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45822</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45679</v>
+      </c>
+      <c r="G53" t="s">
+        <v>226</v>
+      </c>
+      <c r="H53" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53">
+        <v>80412</v>
+      </c>
+      <c r="J53">
+        <v>5000</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>12000</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>2350</v>
+      </c>
+      <c r="O53">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45995</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45768</v>
+      </c>
+      <c r="G54" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" t="s">
+        <v>228</v>
+      </c>
+      <c r="I54">
+        <v>85956</v>
+      </c>
+      <c r="J54">
+        <v>6000</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>8000</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>2271</v>
+      </c>
+      <c r="O54">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45798</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45745</v>
+      </c>
+      <c r="G55" t="s">
+        <v>227</v>
+      </c>
+      <c r="H55" t="s">
+        <v>229</v>
+      </c>
+      <c r="I55">
+        <v>104666</v>
+      </c>
+      <c r="J55">
+        <v>5000</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2120</v>
+      </c>
+      <c r="O55">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45878</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45686</v>
+      </c>
+      <c r="G56" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" t="s">
+        <v>231</v>
+      </c>
+      <c r="I56">
+        <v>86954</v>
+      </c>
+      <c r="J56">
+        <v>6000</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>8000</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1592</v>
+      </c>
+      <c r="O56">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="2">
+        <v>46014</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45721</v>
+      </c>
+      <c r="G57" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" t="s">
+        <v>231</v>
+      </c>
+      <c r="I57">
+        <v>121599</v>
+      </c>
+      <c r="J57">
+        <v>4000</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2978</v>
+      </c>
+      <c r="O57">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45875</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45669</v>
+      </c>
+      <c r="G58" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" t="s">
+        <v>231</v>
+      </c>
+      <c r="I58">
+        <v>89770</v>
+      </c>
+      <c r="J58">
+        <v>6000</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>12000</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1786</v>
+      </c>
+      <c r="O58">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45999</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45685</v>
+      </c>
+      <c r="G59" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59">
+        <v>84133</v>
+      </c>
+      <c r="J59">
+        <v>6000</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>8000</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2281</v>
+      </c>
+      <c r="O59">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45766</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45712</v>
+      </c>
+      <c r="G60" t="s">
+        <v>227</v>
+      </c>
+      <c r="H60" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60">
+        <v>133937</v>
+      </c>
+      <c r="J60">
+        <v>5000</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>8000</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2172</v>
+      </c>
+      <c r="O60">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45661</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45691</v>
+      </c>
+      <c r="G61" t="s">
+        <v>226</v>
+      </c>
+      <c r="H61" t="s">
+        <v>231</v>
+      </c>
+      <c r="I61">
+        <v>138274</v>
+      </c>
+      <c r="J61">
+        <v>5000</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>12000</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>2873</v>
+      </c>
+      <c r="O61">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45756</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45791</v>
+      </c>
+      <c r="G62" t="s">
+        <v>223</v>
+      </c>
+      <c r="H62" t="s">
+        <v>228</v>
+      </c>
+      <c r="I62">
+        <v>125805</v>
+      </c>
+      <c r="J62">
+        <v>4000</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>12000</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>2474</v>
+      </c>
+      <c r="O62">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45759</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45730</v>
+      </c>
+      <c r="G63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H63" t="s">
+        <v>230</v>
+      </c>
+      <c r="I63">
+        <v>138086</v>
+      </c>
+      <c r="J63">
+        <v>6000</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>8000</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>1952</v>
+      </c>
+      <c r="O63">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45944</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45805</v>
+      </c>
+      <c r="G64" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64">
+        <v>100928</v>
+      </c>
+      <c r="J64">
+        <v>4000</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>12000</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1161</v>
+      </c>
+      <c r="O64">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45870</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45802</v>
+      </c>
+      <c r="G65" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" t="s">
+        <v>228</v>
+      </c>
+      <c r="I65">
+        <v>102524</v>
+      </c>
+      <c r="J65">
+        <v>6000</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>8000</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2929</v>
+      </c>
+      <c r="O65">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45975</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G66" t="s">
+        <v>227</v>
+      </c>
+      <c r="H66" t="s">
+        <v>231</v>
+      </c>
+      <c r="I66">
+        <v>145901</v>
+      </c>
+      <c r="J66">
+        <v>4000</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>12000</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>2523</v>
+      </c>
+      <c r="O66">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45700</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45731</v>
+      </c>
+      <c r="G67" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67">
+        <v>128040</v>
+      </c>
+      <c r="J67">
+        <v>5000</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>12000</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2348</v>
+      </c>
+      <c r="O67">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45791</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45719</v>
+      </c>
+      <c r="G68" t="s">
+        <v>227</v>
+      </c>
+      <c r="H68" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68">
+        <v>104679</v>
+      </c>
+      <c r="J68">
+        <v>4000</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>10000</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>1298</v>
+      </c>
+      <c r="O68">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45836</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45725</v>
+      </c>
+      <c r="G69" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69">
+        <v>137529</v>
+      </c>
+      <c r="J69">
+        <v>6000</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>10000</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>1075</v>
+      </c>
+      <c r="O69">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45775</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45759</v>
+      </c>
+      <c r="G70" t="s">
+        <v>225</v>
+      </c>
+      <c r="H70" t="s">
+        <v>232</v>
+      </c>
+      <c r="I70">
+        <v>128297</v>
+      </c>
+      <c r="J70">
+        <v>4000</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>8000</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2736</v>
+      </c>
+      <c r="O70">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="2">
+        <v>46015</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45776</v>
+      </c>
+      <c r="G71" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" t="s">
+        <v>232</v>
+      </c>
+      <c r="I71">
+        <v>115417</v>
+      </c>
+      <c r="J71">
+        <v>5000</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1772</v>
+      </c>
+      <c r="O71">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45946</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45672</v>
+      </c>
+      <c r="G72" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" t="s">
+        <v>232</v>
+      </c>
+      <c r="I72">
+        <v>91896</v>
+      </c>
+      <c r="J72">
+        <v>4000</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2636</v>
+      </c>
+      <c r="O72">
+        <v>6322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45855</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45740</v>
+      </c>
+      <c r="G73" t="s">
+        <v>223</v>
+      </c>
+      <c r="H73" t="s">
+        <v>232</v>
+      </c>
+      <c r="I73">
+        <v>75546</v>
+      </c>
+      <c r="J73">
+        <v>6000</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>10000</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>2786</v>
+      </c>
+      <c r="O73">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45732</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45716</v>
+      </c>
+      <c r="G74" t="s">
+        <v>224</v>
+      </c>
+      <c r="H74" t="s">
+        <v>232</v>
+      </c>
+      <c r="I74">
+        <v>129706</v>
+      </c>
+      <c r="J74">
+        <v>6000</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1720</v>
+      </c>
+      <c r="O74">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="2">
+        <v>46014</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45753</v>
+      </c>
+      <c r="G75" t="s">
+        <v>223</v>
+      </c>
+      <c r="H75" t="s">
+        <v>230</v>
+      </c>
+      <c r="I75">
+        <v>135565</v>
+      </c>
+      <c r="J75">
+        <v>4000</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>12000</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>2079</v>
+      </c>
+      <c r="O75">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45912</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45735</v>
+      </c>
+      <c r="G76" t="s">
+        <v>226</v>
+      </c>
+      <c r="H76" t="s">
+        <v>228</v>
+      </c>
+      <c r="I76">
+        <v>69120</v>
+      </c>
+      <c r="J76">
+        <v>5000</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>8000</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>2936</v>
+      </c>
+      <c r="O76">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45851</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45695</v>
+      </c>
+      <c r="G77" t="s">
+        <v>227</v>
+      </c>
+      <c r="H77" t="s">
+        <v>228</v>
+      </c>
+      <c r="I77">
+        <v>147835</v>
+      </c>
+      <c r="J77">
+        <v>4000</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>8000</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>2472</v>
+      </c>
+      <c r="O77">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45850</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45798</v>
+      </c>
+      <c r="G78" t="s">
+        <v>223</v>
+      </c>
+      <c r="H78" t="s">
+        <v>231</v>
+      </c>
+      <c r="I78">
+        <v>145682</v>
+      </c>
+      <c r="J78">
+        <v>6000</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>8000</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>2720</v>
+      </c>
+      <c r="O78">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45987</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45727</v>
+      </c>
+      <c r="G79" t="s">
+        <v>227</v>
+      </c>
+      <c r="H79" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79">
+        <v>106430</v>
+      </c>
+      <c r="J79">
+        <v>4000</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>10000</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1871</v>
+      </c>
+      <c r="O79">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45692</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45793</v>
+      </c>
+      <c r="G80" t="s">
+        <v>225</v>
+      </c>
+      <c r="H80" t="s">
+        <v>228</v>
+      </c>
+      <c r="I80">
+        <v>68742</v>
+      </c>
+      <c r="J80">
+        <v>4000</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>12000</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>2517</v>
+      </c>
+      <c r="O80">
+        <v>6782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45798</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45663</v>
+      </c>
+      <c r="G81" t="s">
+        <v>225</v>
+      </c>
+      <c r="H81" t="s">
+        <v>229</v>
+      </c>
+      <c r="I81">
+        <v>59537</v>
+      </c>
+      <c r="J81">
+        <v>5000</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81">
+        <v>8000</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>1201</v>
+      </c>
+      <c r="O81">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45765</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45714</v>
+      </c>
+      <c r="G82" t="s">
+        <v>225</v>
+      </c>
+      <c r="H82" t="s">
+        <v>231</v>
+      </c>
+      <c r="I82">
+        <v>94614</v>
+      </c>
+      <c r="J82">
+        <v>4000</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>12000</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>2625</v>
+      </c>
+      <c r="O82">
+        <v>5771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83" s="2">
+        <v>46018</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45791</v>
+      </c>
+      <c r="G83" t="s">
+        <v>227</v>
+      </c>
+      <c r="H83" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83">
+        <v>147253</v>
+      </c>
+      <c r="J83">
+        <v>5000</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>8000</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>2869</v>
+      </c>
+      <c r="O83">
+        <v>6322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45954</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45666</v>
+      </c>
+      <c r="G84" t="s">
+        <v>226</v>
+      </c>
+      <c r="H84" t="s">
+        <v>228</v>
+      </c>
+      <c r="I84">
+        <v>82719</v>
+      </c>
+      <c r="J84">
+        <v>6000</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>2736</v>
+      </c>
+      <c r="O84">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45666</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45779</v>
+      </c>
+      <c r="G85" t="s">
+        <v>227</v>
+      </c>
+      <c r="H85" t="s">
+        <v>230</v>
+      </c>
+      <c r="I85">
+        <v>116392</v>
+      </c>
+      <c r="J85">
+        <v>6000</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>12000</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>1960</v>
+      </c>
+      <c r="O85">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45955</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45738</v>
+      </c>
+      <c r="G86" t="s">
+        <v>226</v>
+      </c>
+      <c r="H86" t="s">
+        <v>229</v>
+      </c>
+      <c r="I86">
+        <v>128246</v>
+      </c>
+      <c r="J86">
+        <v>6000</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2315</v>
+      </c>
+      <c r="O86">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45878</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45720</v>
+      </c>
+      <c r="G87" t="s">
+        <v>226</v>
+      </c>
+      <c r="H87" t="s">
+        <v>230</v>
+      </c>
+      <c r="I87">
+        <v>57459</v>
+      </c>
+      <c r="J87">
+        <v>4000</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>10000</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>2990</v>
+      </c>
+      <c r="O87">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45908</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45786</v>
+      </c>
+      <c r="G88" t="s">
+        <v>226</v>
+      </c>
+      <c r="H88" t="s">
+        <v>228</v>
+      </c>
+      <c r="I88">
+        <v>129575</v>
+      </c>
+      <c r="J88">
+        <v>4000</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>10000</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>1710</v>
+      </c>
+      <c r="O88">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45796</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45807</v>
+      </c>
+      <c r="G89" t="s">
+        <v>223</v>
+      </c>
+      <c r="H89" t="s">
+        <v>228</v>
+      </c>
+      <c r="I89">
+        <v>132935</v>
+      </c>
+      <c r="J89">
+        <v>5000</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>12000</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>2609</v>
+      </c>
+      <c r="O89">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45973</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45726</v>
+      </c>
+      <c r="G90" t="s">
+        <v>226</v>
+      </c>
+      <c r="H90" t="s">
+        <v>230</v>
+      </c>
+      <c r="I90">
+        <v>75419</v>
+      </c>
+      <c r="J90">
+        <v>4000</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>8000</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1775</v>
+      </c>
+      <c r="O90">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45663</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45666</v>
+      </c>
+      <c r="G91" t="s">
+        <v>223</v>
+      </c>
+      <c r="H91" t="s">
+        <v>230</v>
+      </c>
+      <c r="I91">
+        <v>101353</v>
+      </c>
+      <c r="J91">
+        <v>4000</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>2260</v>
+      </c>
+      <c r="O91">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45948</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45737</v>
+      </c>
+      <c r="G92" t="s">
+        <v>226</v>
+      </c>
+      <c r="H92" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92">
+        <v>67853</v>
+      </c>
+      <c r="J92">
+        <v>5000</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>12000</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>1031</v>
+      </c>
+      <c r="O92">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45747</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45801</v>
+      </c>
+      <c r="G93" t="s">
+        <v>225</v>
+      </c>
+      <c r="H93" t="s">
+        <v>230</v>
+      </c>
+      <c r="I93">
+        <v>99699</v>
+      </c>
+      <c r="J93">
+        <v>5000</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>12000</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2636</v>
+      </c>
+      <c r="O93">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45821</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45736</v>
+      </c>
+      <c r="G94" t="s">
+        <v>226</v>
+      </c>
+      <c r="H94" t="s">
+        <v>232</v>
+      </c>
+      <c r="I94">
+        <v>115621</v>
+      </c>
+      <c r="J94">
+        <v>4000</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1813</v>
+      </c>
+      <c r="O94">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45754</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45785</v>
+      </c>
+      <c r="G95" t="s">
+        <v>224</v>
+      </c>
+      <c r="H95" t="s">
+        <v>232</v>
+      </c>
+      <c r="I95">
+        <v>70282</v>
+      </c>
+      <c r="J95">
+        <v>5000</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>10000</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2077</v>
+      </c>
+      <c r="O95">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="2">
+        <v>46022</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45659</v>
+      </c>
+      <c r="G96" t="s">
+        <v>226</v>
+      </c>
+      <c r="H96" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96">
+        <v>97044</v>
+      </c>
+      <c r="J96">
+        <v>4000</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>10000</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2882</v>
+      </c>
+      <c r="O96">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45775</v>
+      </c>
+      <c r="G97" t="s">
+        <v>226</v>
+      </c>
+      <c r="H97" t="s">
+        <v>231</v>
+      </c>
+      <c r="I97">
+        <v>133279</v>
+      </c>
+      <c r="J97">
+        <v>5000</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>10000</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>2937</v>
+      </c>
+      <c r="O97">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45797</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45701</v>
+      </c>
+      <c r="G98" t="s">
+        <v>226</v>
+      </c>
+      <c r="H98" t="s">
+        <v>230</v>
+      </c>
+      <c r="I98">
+        <v>81254</v>
+      </c>
+      <c r="J98">
+        <v>5000</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>12000</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>1008</v>
+      </c>
+      <c r="O98">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45799</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45755</v>
+      </c>
+      <c r="G99" t="s">
+        <v>225</v>
+      </c>
+      <c r="H99" t="s">
+        <v>228</v>
+      </c>
+      <c r="I99">
+        <v>69215</v>
+      </c>
+      <c r="J99">
+        <v>4000</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>10000</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2110</v>
+      </c>
+      <c r="O99">
+        <v>6485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45789</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45768</v>
+      </c>
+      <c r="G100" t="s">
+        <v>223</v>
+      </c>
+      <c r="H100" t="s">
+        <v>232</v>
+      </c>
+      <c r="I100">
+        <v>63453</v>
+      </c>
+      <c r="J100">
+        <v>6000</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+      <c r="L100">
+        <v>8000</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>2727</v>
+      </c>
+      <c r="O100">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45857</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45679</v>
+      </c>
+      <c r="G101" t="s">
+        <v>224</v>
+      </c>
+      <c r="H101" t="s">
+        <v>231</v>
+      </c>
+      <c r="I101">
+        <v>82826</v>
+      </c>
+      <c r="J101">
+        <v>6000</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>8000</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2399</v>
+      </c>
+      <c r="O101">
+        <v>3133</v>
       </c>
     </row>
   </sheetData>
